--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -849,6 +849,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,16 +875,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H194" sqref="H194"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,7 +1211,7 @@
       <c r="C2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1223,7 +1223,7 @@
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="30"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
         <v>11</v>
@@ -1239,13 +1239,13 @@
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -1253,13 +1253,13 @@
       <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
         <v>9</v>
@@ -1267,7 +1267,7 @@
       <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -1289,7 +1289,7 @@
       <c r="C7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1301,7 +1301,7 @@
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
         <v>16</v>
@@ -1317,13 +1317,13 @@
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
       <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -1345,7 +1345,7 @@
       <c r="G10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
@@ -1367,7 +1367,7 @@
       <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1379,7 +1379,7 @@
       <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
         <v>22</v>
@@ -1395,7 +1395,7 @@
       <c r="G13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -1411,7 +1411,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1423,7 +1423,7 @@
       <c r="G15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
         <v>64</v>
@@ -1439,21 +1439,21 @@
       <c r="G16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="33"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
@@ -1473,7 +1473,7 @@
         <v>66</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1485,7 +1485,7 @@
       <c r="G19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -1501,21 +1501,21 @@
       <c r="G20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="33"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -1535,7 +1535,7 @@
         <v>67</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1547,7 +1547,7 @@
       <c r="G23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
         <v>68</v>
@@ -1563,13 +1563,13 @@
       <c r="G24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
         <v>69</v>
@@ -1577,13 +1577,13 @@
       <c r="G25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="33"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
         <v>9</v>
@@ -1591,7 +1591,7 @@
       <c r="G26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -1611,7 +1611,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1623,7 +1623,7 @@
       <c r="G28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
         <v>71</v>
@@ -1639,13 +1639,13 @@
       <c r="G29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="33"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
         <v>72</v>
@@ -1653,13 +1653,13 @@
       <c r="G30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="31"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10" t="s">
         <v>9</v>
@@ -1667,7 +1667,7 @@
       <c r="G31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
@@ -1687,7 +1687,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -1699,7 +1699,7 @@
       <c r="G33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
         <v>74</v>
@@ -1715,13 +1715,13 @@
       <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="33"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
         <v>75</v>
@@ -1729,13 +1729,13 @@
       <c r="G35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="33"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="31"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
         <v>9</v>
@@ -1743,7 +1743,7 @@
       <c r="G36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
@@ -1763,7 +1763,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1775,7 +1775,7 @@
       <c r="G38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="10" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="G39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
@@ -1813,7 +1813,7 @@
         <v>76</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -1825,7 +1825,7 @@
       <c r="G41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="7" t="s">
         <v>25</v>
       </c>
@@ -1843,13 +1843,13 @@
       <c r="G42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="37"/>
+      <c r="H42" s="31"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="31"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
         <v>77</v>
@@ -1857,7 +1857,7 @@
       <c r="G43" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H43" s="38"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D44" s="21"/>
@@ -1871,7 +1871,7 @@
         <v>79</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -1883,7 +1883,7 @@
       <c r="G45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="30"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="7" t="s">
         <v>25</v>
       </c>
@@ -1901,13 +1901,13 @@
       <c r="G46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="37"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="31"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="s">
         <v>80</v>
@@ -1915,7 +1915,7 @@
       <c r="G47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H47" s="38"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
@@ -1937,7 +1937,7 @@
       <c r="C49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -1949,7 +1949,7 @@
       <c r="G49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="10" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="G50" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="34"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
@@ -1989,7 +1989,7 @@
       <c r="C52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -2001,7 +2001,7 @@
       <c r="G52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="H52" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="30"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="7" t="s">
         <v>25</v>
       </c>
@@ -2019,13 +2019,13 @@
       <c r="G53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="33"/>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="10"/>
       <c r="F54" s="16" t="s">
         <v>54</v>
@@ -2033,7 +2033,7 @@
       <c r="G54" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="34"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
@@ -2065,7 +2065,7 @@
       <c r="G56" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       <c r="G57" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="34"/>
+      <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
@@ -2105,7 +2105,7 @@
       <c r="C59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -2117,7 +2117,7 @@
       <c r="G59" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H59" s="32" t="s">
+      <c r="H59" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="30"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="7" t="s">
         <v>25</v>
       </c>
@@ -2135,13 +2135,13 @@
       <c r="G60" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H60" s="33"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="10"/>
       <c r="F61" s="16" t="s">
         <v>88</v>
@@ -2149,7 +2149,7 @@
       <c r="G61" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H61" s="34"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
@@ -2171,7 +2171,7 @@
       <c r="C63" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -2183,7 +2183,7 @@
       <c r="G63" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="H63" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="30"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="7" t="s">
         <v>25</v>
       </c>
@@ -2201,13 +2201,13 @@
       <c r="G64" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="33"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="30"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7" t="s">
         <v>28</v>
@@ -2215,13 +2215,13 @@
       <c r="G65" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H65" s="33"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="30"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="7"/>
       <c r="F66" s="15" t="s">
         <v>40</v>
@@ -2229,13 +2229,13 @@
       <c r="G66" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H66" s="33"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="30"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="7"/>
       <c r="F67" s="15" t="s">
         <v>49</v>
@@ -2243,13 +2243,13 @@
       <c r="G67" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="33"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="30"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="7"/>
       <c r="F68" s="15" t="s">
         <v>44</v>
@@ -2257,13 +2257,13 @@
       <c r="G68" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H68" s="33"/>
+      <c r="H68" s="37"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="7"/>
       <c r="F69" s="15" t="s">
         <v>45</v>
@@ -2271,13 +2271,13 @@
       <c r="G69" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H69" s="33"/>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="31"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="10"/>
       <c r="F70" s="16" t="s">
         <v>47</v>
@@ -2285,7 +2285,7 @@
       <c r="G70" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="34"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
@@ -2305,7 +2305,7 @@
         <v>92</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -2317,7 +2317,7 @@
       <c r="G72" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H72" s="32" t="s">
+      <c r="H72" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="30"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="7" t="s">
         <v>25</v>
       </c>
@@ -2335,13 +2335,13 @@
       <c r="G73" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H73" s="33"/>
+      <c r="H73" s="37"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="30"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
         <v>28</v>
@@ -2349,13 +2349,13 @@
       <c r="G74" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H74" s="33"/>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="31"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="10"/>
       <c r="F75" s="16" t="s">
         <v>93</v>
@@ -2363,7 +2363,7 @@
       <c r="G75" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="H75" s="34"/>
+      <c r="H75" s="38"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D76" s="23"/>
@@ -2379,7 +2379,7 @@
         <v>96</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -2391,7 +2391,7 @@
       <c r="G77" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H77" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="30"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="7" t="s">
         <v>25</v>
       </c>
@@ -2409,13 +2409,13 @@
       <c r="G78" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="37"/>
+      <c r="H78" s="31"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="30"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7" t="s">
         <v>28</v>
@@ -2423,13 +2423,13 @@
       <c r="G79" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H79" s="37"/>
+      <c r="H79" s="31"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="30"/>
+      <c r="D80" s="34"/>
       <c r="E80" s="7"/>
       <c r="F80" s="15" t="s">
         <v>93</v>
@@ -2437,13 +2437,13 @@
       <c r="G80" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H80" s="37"/>
+      <c r="H80" s="31"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="31"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="10"/>
       <c r="F81" s="16" t="s">
         <v>97</v>
@@ -2451,7 +2451,7 @@
       <c r="G81" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="H81" s="38"/>
+      <c r="H81" s="32"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
@@ -2461,7 +2461,7 @@
         <v>99</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -2473,7 +2473,7 @@
       <c r="G83" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H83" s="36" t="s">
+      <c r="H83" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="30"/>
+      <c r="D84" s="34"/>
       <c r="E84" s="7" t="s">
         <v>25</v>
       </c>
@@ -2491,13 +2491,13 @@
       <c r="G84" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="37"/>
+      <c r="H84" s="31"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="30"/>
+      <c r="D85" s="34"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
         <v>28</v>
@@ -2505,13 +2505,13 @@
       <c r="G85" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H85" s="37"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="30"/>
+      <c r="D86" s="34"/>
       <c r="E86" s="7"/>
       <c r="F86" s="15" t="s">
         <v>93</v>
@@ -2519,13 +2519,13 @@
       <c r="G86" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="H86" s="37"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="30"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="7"/>
       <c r="F87" s="15" t="s">
         <v>100</v>
@@ -2533,13 +2533,13 @@
       <c r="G87" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H87" s="37"/>
+      <c r="H87" s="31"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="30"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="7"/>
       <c r="F88" s="15" t="s">
         <v>102</v>
@@ -2547,13 +2547,13 @@
       <c r="G88" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="37"/>
+      <c r="H88" s="31"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="30"/>
+      <c r="D89" s="34"/>
       <c r="E89" s="7"/>
       <c r="F89" s="15" t="s">
         <v>103</v>
@@ -2561,13 +2561,13 @@
       <c r="G89" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H89" s="37"/>
+      <c r="H89" s="31"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="30"/>
+      <c r="D90" s="34"/>
       <c r="E90" s="7"/>
       <c r="F90" s="15" t="s">
         <v>104</v>
@@ -2575,13 +2575,13 @@
       <c r="G90" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H90" s="37"/>
+      <c r="H90" s="31"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
-      <c r="D91" s="31"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="10"/>
       <c r="F91" s="16" t="s">
         <v>105</v>
@@ -2589,7 +2589,7 @@
       <c r="G91" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H91" s="38"/>
+      <c r="H91" s="32"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
@@ -2609,7 +2609,7 @@
         <v>108</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -2621,7 +2621,7 @@
       <c r="G93" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H93" s="36" t="s">
+      <c r="H93" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="30"/>
+      <c r="D94" s="34"/>
       <c r="E94" s="7" t="s">
         <v>25</v>
       </c>
@@ -2639,13 +2639,13 @@
       <c r="G94" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="37"/>
+      <c r="H94" s="31"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="30"/>
+      <c r="D95" s="34"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
         <v>28</v>
@@ -2653,13 +2653,13 @@
       <c r="G95" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H95" s="37"/>
+      <c r="H95" s="31"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="30"/>
+      <c r="D96" s="34"/>
       <c r="E96" s="7"/>
       <c r="F96" s="15" t="s">
         <v>109</v>
@@ -2667,13 +2667,13 @@
       <c r="G96" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H96" s="37"/>
+      <c r="H96" s="31"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="30"/>
+      <c r="D97" s="34"/>
       <c r="E97" s="7"/>
       <c r="F97" s="15" t="s">
         <v>110</v>
@@ -2681,13 +2681,13 @@
       <c r="G97" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H97" s="37"/>
+      <c r="H97" s="31"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="30"/>
+      <c r="D98" s="34"/>
       <c r="E98" s="7"/>
       <c r="F98" s="15" t="s">
         <v>111</v>
@@ -2695,13 +2695,13 @@
       <c r="G98" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H98" s="37"/>
+      <c r="H98" s="31"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
-      <c r="D99" s="31"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="10"/>
       <c r="F99" s="16" t="s">
         <v>112</v>
@@ -2709,7 +2709,7 @@
       <c r="G99" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H99" s="38"/>
+      <c r="H99" s="32"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
@@ -2719,7 +2719,7 @@
         <v>50</v>
       </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E101" s="4" t="s">
@@ -2731,7 +2731,7 @@
       <c r="G101" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H101" s="36" t="s">
+      <c r="H101" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
-      <c r="D102" s="30"/>
+      <c r="D102" s="34"/>
       <c r="E102" s="7" t="s">
         <v>25</v>
       </c>
@@ -2749,13 +2749,13 @@
       <c r="G102" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="37"/>
+      <c r="H102" s="31"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
-      <c r="D103" s="30"/>
+      <c r="D103" s="34"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
         <v>28</v>
@@ -2763,13 +2763,13 @@
       <c r="G103" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H103" s="37"/>
+      <c r="H103" s="31"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
-      <c r="D104" s="30"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="7"/>
       <c r="F104" s="15" t="s">
         <v>109</v>
@@ -2777,13 +2777,13 @@
       <c r="G104" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="37"/>
+      <c r="H104" s="31"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
-      <c r="D105" s="30"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="7"/>
       <c r="F105" s="15" t="s">
         <v>117</v>
@@ -2791,13 +2791,13 @@
       <c r="G105" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="H105" s="37"/>
+      <c r="H105" s="31"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
-      <c r="D106" s="31"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="10"/>
       <c r="F106" s="16" t="s">
         <v>118</v>
@@ -2805,7 +2805,7 @@
       <c r="G106" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H106" s="38"/>
+      <c r="H106" s="32"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
@@ -2815,7 +2815,7 @@
         <v>121</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E108" s="4" t="s">
@@ -2827,7 +2827,7 @@
       <c r="G108" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H108" s="36" t="s">
+      <c r="H108" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="30"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="7" t="s">
         <v>25</v>
       </c>
@@ -2845,13 +2845,13 @@
       <c r="G109" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H109" s="37"/>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
-      <c r="D110" s="30"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7" t="s">
         <v>28</v>
@@ -2859,13 +2859,13 @@
       <c r="G110" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H110" s="37"/>
+      <c r="H110" s="31"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="30"/>
+      <c r="D111" s="34"/>
       <c r="E111" s="7"/>
       <c r="F111" s="15" t="s">
         <v>109</v>
@@ -2873,13 +2873,13 @@
       <c r="G111" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H111" s="37"/>
+      <c r="H111" s="31"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="31"/>
+      <c r="D112" s="35"/>
       <c r="E112" s="10"/>
       <c r="F112" s="16" t="s">
         <v>123</v>
@@ -2887,7 +2887,7 @@
       <c r="G112" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="38"/>
+      <c r="H112" s="32"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D113" s="23"/>
@@ -2903,7 +2903,7 @@
         <v>61</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E114" s="4" t="s">
@@ -2915,7 +2915,7 @@
       <c r="G114" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H114" s="36" t="s">
+      <c r="H114" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
-      <c r="D115" s="30"/>
+      <c r="D115" s="34"/>
       <c r="E115" s="7" t="s">
         <v>25</v>
       </c>
@@ -2933,13 +2933,13 @@
       <c r="G115" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="37"/>
+      <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="30"/>
+      <c r="D116" s="34"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
         <v>28</v>
@@ -2947,13 +2947,13 @@
       <c r="G116" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H116" s="37"/>
+      <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
-      <c r="D117" s="30"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="7"/>
       <c r="F117" s="15" t="s">
         <v>109</v>
@@ -2961,13 +2961,13 @@
       <c r="G117" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H117" s="37"/>
+      <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
-      <c r="D118" s="30"/>
+      <c r="D118" s="34"/>
       <c r="E118" s="7"/>
       <c r="F118" s="15" t="s">
         <v>124</v>
@@ -2975,13 +2975,13 @@
       <c r="G118" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H118" s="37"/>
+      <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
-      <c r="D119" s="30"/>
+      <c r="D119" s="34"/>
       <c r="E119" s="7"/>
       <c r="F119" s="15" t="s">
         <v>125</v>
@@ -2989,13 +2989,13 @@
       <c r="G119" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H119" s="37"/>
+      <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
-      <c r="D120" s="30"/>
+      <c r="D120" s="34"/>
       <c r="E120" s="7"/>
       <c r="F120" s="15" t="s">
         <v>126</v>
@@ -3003,13 +3003,13 @@
       <c r="G120" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H120" s="37"/>
+      <c r="H120" s="31"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
-      <c r="D121" s="30"/>
+      <c r="D121" s="34"/>
       <c r="E121" s="7"/>
       <c r="F121" s="15" t="s">
         <v>127</v>
@@ -3017,13 +3017,13 @@
       <c r="G121" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H121" s="37"/>
+      <c r="H121" s="31"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
-      <c r="D122" s="30"/>
+      <c r="D122" s="34"/>
       <c r="E122" s="7"/>
       <c r="F122" s="15" t="s">
         <v>128</v>
@@ -3031,13 +3031,13 @@
       <c r="G122" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H122" s="37"/>
+      <c r="H122" s="31"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="30"/>
+      <c r="D123" s="34"/>
       <c r="E123" s="7"/>
       <c r="F123" s="15" t="s">
         <v>129</v>
@@ -3045,13 +3045,13 @@
       <c r="G123" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="H123" s="37"/>
+      <c r="H123" s="31"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
-      <c r="D124" s="30"/>
+      <c r="D124" s="34"/>
       <c r="E124" s="7"/>
       <c r="F124" s="15" t="s">
         <v>130</v>
@@ -3059,13 +3059,13 @@
       <c r="G124" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H124" s="37"/>
+      <c r="H124" s="31"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
-      <c r="D125" s="31"/>
+      <c r="D125" s="35"/>
       <c r="E125" s="10"/>
       <c r="F125" s="16" t="s">
         <v>131</v>
@@ -3073,7 +3073,7 @@
       <c r="G125" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H125" s="38"/>
+      <c r="H125" s="32"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
@@ -3093,7 +3093,7 @@
         <v>140</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="29" t="s">
+      <c r="D127" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -3105,7 +3105,7 @@
       <c r="G127" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H127" s="36" t="s">
+      <c r="H127" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
-      <c r="D128" s="30"/>
+      <c r="D128" s="34"/>
       <c r="E128" s="7" t="s">
         <v>25</v>
       </c>
@@ -3123,13 +3123,13 @@
       <c r="G128" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H128" s="37"/>
+      <c r="H128" s="31"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
-      <c r="D129" s="31"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="s">
         <v>143</v>
@@ -3137,7 +3137,7 @@
       <c r="G129" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H129" s="38"/>
+      <c r="H129" s="32"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D130" s="23"/>
@@ -3151,7 +3151,7 @@
         <v>145</v>
       </c>
       <c r="C131" s="4"/>
-      <c r="D131" s="29" t="s">
+      <c r="D131" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -3163,7 +3163,7 @@
       <c r="G131" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H131" s="36" t="s">
+      <c r="H131" s="30" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
-      <c r="D132" s="30"/>
+      <c r="D132" s="34"/>
       <c r="E132" s="7" t="s">
         <v>25</v>
       </c>
@@ -3181,13 +3181,13 @@
       <c r="G132" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="37"/>
+      <c r="H132" s="31"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
-      <c r="D133" s="30"/>
+      <c r="D133" s="34"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7" t="s">
         <v>80</v>
@@ -3195,13 +3195,13 @@
       <c r="G133" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H133" s="37"/>
+      <c r="H133" s="31"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
-      <c r="D134" s="31"/>
+      <c r="D134" s="35"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10" t="s">
         <v>149</v>
@@ -3209,7 +3209,7 @@
       <c r="G134" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H134" s="38"/>
+      <c r="H134" s="32"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
@@ -3219,7 +3219,7 @@
         <v>148</v>
       </c>
       <c r="C136" s="4"/>
-      <c r="D136" s="29" t="s">
+      <c r="D136" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -3231,7 +3231,7 @@
       <c r="G136" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H136" s="36" t="s">
+      <c r="H136" s="30" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
-      <c r="D137" s="30"/>
+      <c r="D137" s="34"/>
       <c r="E137" s="7" t="s">
         <v>25</v>
       </c>
@@ -3249,13 +3249,13 @@
       <c r="G137" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="37"/>
+      <c r="H137" s="31"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
-      <c r="D138" s="30"/>
+      <c r="D138" s="34"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
         <v>80</v>
@@ -3263,13 +3263,13 @@
       <c r="G138" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H138" s="37"/>
+      <c r="H138" s="31"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
-      <c r="D139" s="31"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10" t="s">
         <v>146</v>
@@ -3277,7 +3277,7 @@
       <c r="G139" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H139" s="38"/>
+      <c r="H139" s="32"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
@@ -3287,7 +3287,7 @@
         <v>152</v>
       </c>
       <c r="C141" s="4"/>
-      <c r="D141" s="29" t="s">
+      <c r="D141" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E141" s="4" t="s">
@@ -3299,7 +3299,7 @@
       <c r="G141" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H141" s="36" t="s">
+      <c r="H141" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="A142" s="9"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
-      <c r="D142" s="31"/>
+      <c r="D142" s="35"/>
       <c r="E142" s="10" t="s">
         <v>25</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="G142" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H142" s="38"/>
+      <c r="H142" s="32"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
@@ -3327,7 +3327,7 @@
         <v>193</v>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="29" t="s">
+      <c r="D144" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E144" s="4" t="s">
@@ -3339,7 +3339,7 @@
       <c r="G144" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H144" s="36" t="s">
+      <c r="H144" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
-      <c r="D145" s="30"/>
+      <c r="D145" s="34"/>
       <c r="E145" s="7" t="s">
         <v>25</v>
       </c>
@@ -3357,13 +3357,13 @@
       <c r="G145" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H145" s="37"/>
+      <c r="H145" s="31"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
-      <c r="D146" s="30"/>
+      <c r="D146" s="34"/>
       <c r="E146" s="7"/>
       <c r="F146" s="15" t="s">
         <v>157</v>
@@ -3371,13 +3371,13 @@
       <c r="G146" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="H146" s="37"/>
+      <c r="H146" s="31"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
-      <c r="D147" s="31"/>
+      <c r="D147" s="35"/>
       <c r="E147" s="10"/>
       <c r="F147" s="16" t="s">
         <v>159</v>
@@ -3385,7 +3385,7 @@
       <c r="G147" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="H147" s="38"/>
+      <c r="H147" s="32"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
@@ -3395,7 +3395,7 @@
         <v>161</v>
       </c>
       <c r="C149" s="4"/>
-      <c r="D149" s="29" t="s">
+      <c r="D149" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E149" s="4" t="s">
@@ -3407,7 +3407,7 @@
       <c r="G149" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H149" s="36" t="s">
+      <c r="H149" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
-      <c r="D150" s="30"/>
+      <c r="D150" s="34"/>
       <c r="E150" s="7" t="s">
         <v>25</v>
       </c>
@@ -3425,13 +3425,13 @@
       <c r="G150" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H150" s="37"/>
+      <c r="H150" s="31"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
-      <c r="D151" s="31"/>
+      <c r="D151" s="35"/>
       <c r="E151" s="10" t="s">
         <v>162</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="G151" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="H151" s="38"/>
+      <c r="H151" s="32"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
@@ -3451,7 +3451,7 @@
         <v>170</v>
       </c>
       <c r="C153" s="4"/>
-      <c r="D153" s="29" t="s">
+      <c r="D153" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E153" s="4" t="s">
@@ -3463,7 +3463,7 @@
       <c r="G153" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H153" s="36" t="s">
+      <c r="H153" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
-      <c r="D154" s="30"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="15" t="s">
         <v>169</v>
       </c>
@@ -3481,13 +3481,13 @@
       <c r="G154" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H154" s="37"/>
+      <c r="H154" s="31"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
-      <c r="D155" s="30"/>
+      <c r="D155" s="34"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
         <v>12</v>
@@ -3495,13 +3495,13 @@
       <c r="G155" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H155" s="37"/>
+      <c r="H155" s="31"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
-      <c r="D156" s="31"/>
+      <c r="D156" s="35"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="s">
         <v>9</v>
@@ -3509,7 +3509,7 @@
       <c r="G156" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H156" s="38"/>
+      <c r="H156" s="32"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
@@ -3519,7 +3519,7 @@
         <v>168</v>
       </c>
       <c r="C158" s="4"/>
-      <c r="D158" s="29" t="s">
+      <c r="D158" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E158" s="4" t="s">
@@ -3531,7 +3531,7 @@
       <c r="G158" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H158" s="36" t="s">
+      <c r="H158" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
-      <c r="D159" s="30"/>
+      <c r="D159" s="34"/>
       <c r="E159" s="15" t="s">
         <v>171</v>
       </c>
@@ -3549,13 +3549,13 @@
       <c r="G159" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H159" s="37"/>
+      <c r="H159" s="31"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
-      <c r="D160" s="30"/>
+      <c r="D160" s="34"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7" t="s">
         <v>12</v>
@@ -3563,13 +3563,13 @@
       <c r="G160" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H160" s="37"/>
+      <c r="H160" s="31"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
-      <c r="D161" s="31"/>
+      <c r="D161" s="35"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="s">
         <v>9</v>
@@ -3577,7 +3577,7 @@
       <c r="G161" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H161" s="38"/>
+      <c r="H161" s="32"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
@@ -3587,7 +3587,7 @@
         <v>172</v>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="29" t="s">
+      <c r="D163" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E163" s="4" t="s">
@@ -3599,7 +3599,7 @@
       <c r="G163" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H163" s="36" t="s">
+      <c r="H163" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
-      <c r="D164" s="30"/>
+      <c r="D164" s="34"/>
       <c r="E164" s="15" t="s">
         <v>173</v>
       </c>
@@ -3617,13 +3617,13 @@
       <c r="G164" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H164" s="37"/>
+      <c r="H164" s="31"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
-      <c r="D165" s="30"/>
+      <c r="D165" s="34"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7" t="s">
         <v>12</v>
@@ -3631,13 +3631,13 @@
       <c r="G165" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H165" s="37"/>
+      <c r="H165" s="31"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
-      <c r="D166" s="31"/>
+      <c r="D166" s="35"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10" t="s">
         <v>9</v>
@@ -3645,7 +3645,7 @@
       <c r="G166" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H166" s="38"/>
+      <c r="H166" s="32"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
@@ -3655,7 +3655,7 @@
         <v>174</v>
       </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="29" t="s">
+      <c r="D168" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E168" s="4" t="s">
@@ -3667,7 +3667,7 @@
       <c r="G168" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H168" s="36" t="s">
+      <c r="H168" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
-      <c r="D169" s="30"/>
+      <c r="D169" s="34"/>
       <c r="E169" s="15" t="s">
         <v>175</v>
       </c>
@@ -3685,13 +3685,13 @@
       <c r="G169" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H169" s="37"/>
+      <c r="H169" s="31"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
-      <c r="D170" s="30"/>
+      <c r="D170" s="34"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7" t="s">
         <v>12</v>
@@ -3699,13 +3699,13 @@
       <c r="G170" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H170" s="37"/>
+      <c r="H170" s="31"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
-      <c r="D171" s="31"/>
+      <c r="D171" s="35"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="s">
         <v>9</v>
@@ -3713,7 +3713,7 @@
       <c r="G171" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="38"/>
+      <c r="H171" s="32"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
@@ -3723,7 +3723,7 @@
         <v>176</v>
       </c>
       <c r="C173" s="4"/>
-      <c r="D173" s="29" t="s">
+      <c r="D173" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E173" s="4" t="s">
@@ -3735,7 +3735,7 @@
       <c r="G173" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H173" s="36" t="s">
+      <c r="H173" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
-      <c r="D174" s="30"/>
+      <c r="D174" s="34"/>
       <c r="E174" s="15" t="s">
         <v>177</v>
       </c>
@@ -3753,13 +3753,13 @@
       <c r="G174" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H174" s="37"/>
+      <c r="H174" s="31"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
-      <c r="D175" s="30"/>
+      <c r="D175" s="34"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7" t="s">
         <v>12</v>
@@ -3767,13 +3767,13 @@
       <c r="G175" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H175" s="37"/>
+      <c r="H175" s="31"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
-      <c r="D176" s="31"/>
+      <c r="D176" s="35"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10" t="s">
         <v>9</v>
@@ -3781,7 +3781,7 @@
       <c r="G176" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H176" s="38"/>
+      <c r="H176" s="32"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
@@ -3791,7 +3791,7 @@
         <v>178</v>
       </c>
       <c r="C178" s="4"/>
-      <c r="D178" s="29" t="s">
+      <c r="D178" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E178" s="4" t="s">
@@ -3803,7 +3803,7 @@
       <c r="G178" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H178" s="36" t="s">
+      <c r="H178" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
-      <c r="D179" s="30"/>
+      <c r="D179" s="34"/>
       <c r="E179" s="7"/>
       <c r="F179" s="15" t="s">
         <v>186</v>
@@ -3819,13 +3819,13 @@
       <c r="G179" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H179" s="37"/>
+      <c r="H179" s="31"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
-      <c r="D180" s="30"/>
+      <c r="D180" s="34"/>
       <c r="E180" s="7"/>
       <c r="F180" s="15" t="s">
         <v>180</v>
@@ -3833,13 +3833,13 @@
       <c r="G180" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H180" s="37"/>
+      <c r="H180" s="31"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
-      <c r="D181" s="31"/>
+      <c r="D181" s="35"/>
       <c r="E181" s="10"/>
       <c r="F181" s="16" t="s">
         <v>182</v>
@@ -3847,7 +3847,7 @@
       <c r="G181" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="H181" s="38"/>
+      <c r="H181" s="32"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
@@ -3857,7 +3857,7 @@
         <v>185</v>
       </c>
       <c r="C183" s="4"/>
-      <c r="D183" s="29" t="s">
+      <c r="D183" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E183" s="4" t="s">
@@ -3869,7 +3869,7 @@
       <c r="G183" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H183" s="36" t="s">
+      <c r="H183" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
-      <c r="D184" s="30"/>
+      <c r="D184" s="34"/>
       <c r="E184" s="7"/>
       <c r="F184" s="15" t="s">
         <v>187</v>
@@ -3885,13 +3885,13 @@
       <c r="G184" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H184" s="37"/>
+      <c r="H184" s="31"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
-      <c r="D185" s="30"/>
+      <c r="D185" s="34"/>
       <c r="E185" s="7"/>
       <c r="F185" s="15" t="s">
         <v>189</v>
@@ -3899,13 +3899,13 @@
       <c r="G185" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H185" s="37"/>
+      <c r="H185" s="31"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
-      <c r="D186" s="31"/>
+      <c r="D186" s="35"/>
       <c r="E186" s="10"/>
       <c r="F186" s="16" t="s">
         <v>191</v>
@@ -3913,53 +3913,22 @@
       <c r="G186" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H186" s="38"/>
+      <c r="H186" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="H183:H186"/>
-    <mergeCell ref="D183:D186"/>
-    <mergeCell ref="D168:D171"/>
-    <mergeCell ref="H168:H171"/>
-    <mergeCell ref="D173:D176"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="D178:D181"/>
-    <mergeCell ref="H178:H181"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="H153:H156"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="H158:H161"/>
-    <mergeCell ref="D163:D166"/>
-    <mergeCell ref="H163:H166"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="H144:H147"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H127:H129"/>
-    <mergeCell ref="H131:H134"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="D108:D112"/>
-    <mergeCell ref="H108:H112"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="H114:H125"/>
+    <mergeCell ref="D101:D106"/>
+    <mergeCell ref="H101:H106"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="H77:H81"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="H83:H91"/>
+    <mergeCell ref="D93:D99"/>
+    <mergeCell ref="H93:H99"/>
     <mergeCell ref="D136:D139"/>
     <mergeCell ref="H136:H139"/>
     <mergeCell ref="H2:H5"/>
@@ -3976,18 +3945,49 @@
     <mergeCell ref="D72:D75"/>
     <mergeCell ref="H72:H75"/>
     <mergeCell ref="D77:D81"/>
-    <mergeCell ref="H77:H81"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="H83:H91"/>
-    <mergeCell ref="D93:D99"/>
-    <mergeCell ref="H93:H99"/>
-    <mergeCell ref="D101:D106"/>
-    <mergeCell ref="H101:H106"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="H127:H129"/>
+    <mergeCell ref="H131:H134"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="H108:H112"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="H114:H125"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="H153:H156"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="H158:H161"/>
+    <mergeCell ref="D163:D166"/>
+    <mergeCell ref="H163:H166"/>
+    <mergeCell ref="H183:H186"/>
+    <mergeCell ref="D183:D186"/>
+    <mergeCell ref="D168:D171"/>
+    <mergeCell ref="H168:H171"/>
+    <mergeCell ref="D173:D176"/>
+    <mergeCell ref="H173:H176"/>
+    <mergeCell ref="D178:D181"/>
+    <mergeCell ref="H178:H181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
